--- a/data_SV.xlsx
+++ b/data_SV.xlsx
@@ -4999,7 +4999,7 @@
         <v>470316234</v>
       </c>
       <c r="FM14" s="11" t="n">
-        <v>425343978</v>
+        <v>770493180</v>
       </c>
     </row>
     <row r="15">
@@ -5508,7 +5508,7 @@
         <v>300051618</v>
       </c>
       <c r="FM15" s="11" t="n">
-        <v>804523688</v>
+        <v>770572427</v>
       </c>
     </row>
     <row r="16">
@@ -6017,7 +6017,7 @@
         <v>425343978</v>
       </c>
       <c r="FM16" s="11" t="n">
-        <v>300441648</v>
+        <v>728078630</v>
       </c>
     </row>
     <row r="17">
@@ -6526,7 +6526,7 @@
         <v>804523688</v>
       </c>
       <c r="FM17" s="11" t="n">
-        <v>642517581</v>
+        <v>215681102</v>
       </c>
     </row>
     <row r="18">
@@ -7035,7 +7035,7 @@
         <v>215142767</v>
       </c>
       <c r="FM18" s="11" t="n">
-        <v>770493180</v>
+        <v>598158692</v>
       </c>
     </row>
     <row r="19">
@@ -7469,7 +7469,7 @@
         <v>639114298</v>
       </c>
       <c r="FM19" s="11" t="n">
-        <v>300051618</v>
+        <v>428058220</v>
       </c>
     </row>
     <row r="20">
@@ -7867,7 +7867,7 @@
         <v>385325518</v>
       </c>
       <c r="FM20" s="11" t="n">
-        <v>639114298</v>
+        <v>770236906</v>
       </c>
     </row>
     <row r="21">
@@ -8259,7 +8259,7 @@
         <v>685178144</v>
       </c>
       <c r="FM21" s="11" t="n">
-        <v>770248675</v>
+        <v>600565766</v>
       </c>
     </row>
     <row r="22">
@@ -8651,7 +8651,7 @@
         <v>554393077</v>
       </c>
       <c r="FM22" s="11" t="n">
-        <v>770572427</v>
+        <v>598104191</v>
       </c>
     </row>
     <row r="23">
@@ -9043,7 +9043,7 @@
         <v>770067372</v>
       </c>
       <c r="FM23" s="11" t="n">
-        <v>554393077</v>
+        <v>555717127</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1" s="14" thickBot="1">
@@ -9420,7 +9420,7 @@
         <v>770364993</v>
       </c>
       <c r="FM24" s="11" t="n">
-        <v>257861099</v>
+        <v>300573922</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1" s="14" thickBot="1">
@@ -9713,7 +9713,7 @@
         <v>897762085</v>
       </c>
       <c r="FM25" s="11" t="n">
-        <v>427976893</v>
+        <v>343097121</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1" s="14" thickBot="1">
@@ -9892,7 +9892,7 @@
         <v>600258268</v>
       </c>
       <c r="FM26" s="11" t="n">
-        <v>728078630</v>
+        <v>728065807</v>
       </c>
     </row>
     <row r="27">
@@ -10032,7 +10032,7 @@
         <v>855215807</v>
       </c>
       <c r="FM27" s="11" t="n">
-        <v>215681102</v>
+        <v>600487697</v>
       </c>
     </row>
     <row r="28">
@@ -10118,7 +10118,7 @@
         <v>897824845</v>
       </c>
       <c r="FM28" s="11" t="n">
-        <v>685310188</v>
+        <v>982901011</v>
       </c>
     </row>
     <row r="29">

--- a/data_SV.xlsx
+++ b/data_SV.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-121" yWindow="-121" windowWidth="29042" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -677,20 +677,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FM38"/>
+  <dimension ref="A1:FS38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="EW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FI1" sqref="FI1:FI1048576"/>
+      <pane xSplit="1" topLeftCell="FF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="FR6" sqref="FR6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.6640625" defaultRowHeight="14.55"/>
   <cols>
-    <col width="3.75" customWidth="1" style="11" min="1" max="1"/>
-    <col width="11.625" customWidth="1" style="11" min="2" max="120"/>
-    <col width="11.625" customWidth="1" style="14" min="121" max="122"/>
-    <col width="11.625" customWidth="1" style="11" min="123" max="133"/>
-    <col width="11.625" customWidth="1" style="11" min="134" max="16384"/>
+    <col width="3.77734375" customWidth="1" style="11" min="1" max="1"/>
+    <col width="11.6640625" customWidth="1" style="11" min="2" max="120"/>
+    <col width="11.6640625" customWidth="1" style="14" min="121" max="122"/>
+    <col width="11.6640625" customWidth="1" style="11" min="123" max="134"/>
+    <col width="11.6640625" customWidth="1" style="11" min="135" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="7">
@@ -1532,6 +1532,36 @@
       <c r="FM1" s="11" t="inlineStr">
         <is>
           <t>#163</t>
+        </is>
+      </c>
+      <c r="FN1" s="7" t="inlineStr">
+        <is>
+          <t>#164</t>
+        </is>
+      </c>
+      <c r="FO1" s="11" t="inlineStr">
+        <is>
+          <t>#165</t>
+        </is>
+      </c>
+      <c r="FP1" s="7" t="inlineStr">
+        <is>
+          <t>#166</t>
+        </is>
+      </c>
+      <c r="FQ1" s="11" t="inlineStr">
+        <is>
+          <t>#167</t>
+        </is>
+      </c>
+      <c r="FR1" s="7" t="inlineStr">
+        <is>
+          <t>#168</t>
+        </is>
+      </c>
+      <c r="FS1" s="11" t="inlineStr">
+        <is>
+          <t>#169</t>
         </is>
       </c>
     </row>
@@ -2456,6 +2486,9 @@
       <c r="FM9" s="11" t="n">
         <v>600573084</v>
       </c>
+      <c r="FS9" s="11" t="n">
+        <v>814462237</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="n">
@@ -2965,6 +2998,9 @@
       <c r="FM10" s="11" t="n">
         <v>215588618</v>
       </c>
+      <c r="FS10" s="11" t="n">
+        <v>729350257</v>
+      </c>
     </row>
     <row r="11" ht="14.25" customFormat="1" customHeight="1" s="4" thickBot="1">
       <c r="A11" s="4" t="n">
@@ -3474,6 +3510,9 @@
       <c r="FM11" s="11" t="n">
         <v>597942850</v>
       </c>
+      <c r="FS11" s="11" t="n">
+        <v>471900541</v>
+      </c>
     </row>
     <row r="12" ht="14.25" customHeight="1" s="14" thickTop="1">
       <c r="A12" s="11" t="n">
@@ -3983,6 +4022,9 @@
       <c r="FM12" s="11" t="n">
         <v>555611876</v>
       </c>
+      <c r="FS12" s="11" t="n">
+        <v>259269804</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="n">
@@ -4492,6 +4534,9 @@
       <c r="FM13" s="11" t="n">
         <v>428041429</v>
       </c>
+      <c r="FS13" s="11" t="n">
+        <v>344494232</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="n">
@@ -5001,6 +5046,9 @@
       <c r="FM14" s="11" t="n">
         <v>770493180</v>
       </c>
+      <c r="FS14" s="11" t="n">
+        <v>771877059</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="11" t="n">
@@ -5510,6 +5558,9 @@
       <c r="FM15" s="11" t="n">
         <v>770572427</v>
       </c>
+      <c r="FS15" s="11" t="n">
+        <v>386879549</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="11" t="n">
@@ -6019,6 +6070,9 @@
       <c r="FM16" s="11" t="n">
         <v>728078630</v>
       </c>
+      <c r="FS16" s="11" t="n">
+        <v>513252639</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="n">
@@ -6528,6 +6582,9 @@
       <c r="FM17" s="11" t="n">
         <v>215681102</v>
       </c>
+      <c r="FS17" s="11" t="n">
+        <v>601881807</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="n">
@@ -7037,6 +7094,9 @@
       <c r="FM18" s="11" t="n">
         <v>598158692</v>
       </c>
+      <c r="FS18" s="11" t="n">
+        <v>302057280</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="n">
@@ -7471,6 +7531,9 @@
       <c r="FM19" s="11" t="n">
         <v>428058220</v>
       </c>
+      <c r="FS19" s="11" t="n">
+        <v>601802883</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="11" t="n">
@@ -7869,6 +7932,9 @@
       <c r="FM20" s="11" t="n">
         <v>770236906</v>
       </c>
+      <c r="FS20" s="11" t="n">
+        <v>386988561</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="n">
@@ -8261,6 +8327,9 @@
       <c r="FM21" s="11" t="n">
         <v>600565766</v>
       </c>
+      <c r="FS21" s="11" t="n">
+        <v>898815542</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="11" t="n">
@@ -8653,6 +8722,9 @@
       <c r="FM22" s="11" t="n">
         <v>598104191</v>
       </c>
+      <c r="FS22" s="11" t="n">
+        <v>344445425</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="11" t="n">
@@ -9045,6 +9117,9 @@
       <c r="FM23" s="11" t="n">
         <v>555717127</v>
       </c>
+      <c r="FS23" s="11" t="n">
+        <v>984425977</v>
+      </c>
     </row>
     <row r="24" ht="14.25" customHeight="1" s="14" thickBot="1">
       <c r="A24" s="11" t="n">
@@ -9422,6 +9497,9 @@
       <c r="FM24" s="11" t="n">
         <v>300573922</v>
       </c>
+      <c r="FS24" s="11" t="n">
+        <v>344516458</v>
+      </c>
     </row>
     <row r="25" ht="14.25" customHeight="1" s="14" thickBot="1">
       <c r="A25" s="11" t="n">
@@ -9715,6 +9793,9 @@
       <c r="FM25" s="11" t="n">
         <v>343097121</v>
       </c>
+      <c r="FS25" s="11" t="n">
+        <v>456679355</v>
+      </c>
     </row>
     <row r="26" ht="14.25" customHeight="1" s="14" thickBot="1">
       <c r="A26" s="11" t="n">
@@ -9894,6 +9975,9 @@
       <c r="FM26" s="11" t="n">
         <v>728065807</v>
       </c>
+      <c r="FS26" s="11" t="n">
+        <v>425343978</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="11" t="n">
@@ -10034,6 +10118,9 @@
       <c r="FM27" s="11" t="n">
         <v>600487697</v>
       </c>
+      <c r="FS27" s="11" t="n">
+        <v>599394490</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="11" t="n">
@@ -10120,6 +10207,9 @@
       <c r="FM28" s="11" t="n">
         <v>982901011</v>
       </c>
+      <c r="FS28" s="11" t="n">
+        <v>386795207</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n">
@@ -10181,6 +10271,9 @@
       </c>
       <c r="FM29" s="11" t="n">
         <v>598158692</v>
+      </c>
+      <c r="FS29" s="11" t="n">
+        <v>941753353</v>
       </c>
     </row>
     <row r="30">
@@ -10270,7 +10363,7 @@
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.55"/>
   <cols>
     <col width="12" bestFit="1" customWidth="1" style="11" min="1" max="2"/>
   </cols>
@@ -10324,7 +10417,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.55"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
